--- a/biology/Zoologie/Diacrisia_purpurata/Diacrisia_purpurata.xlsx
+++ b/biology/Zoologie/Diacrisia_purpurata/Diacrisia_purpurata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Écaille pourprée, Écaille mouchetée
 L'Écaille pourprée ou Écaille mouchetée (Diacrisia purpurata) est une espèce paléarctique de lépidoptères (papillons) de la famille des Erebidae et de la sous-famille des Arctiinae.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,9 +552,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est répandue en Eurasie[1]. Elle est présente dans une grande partie de la France métropolitaine, mais est en régression dans le Nord et l'Ouest du pays[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est répandue en Eurasie. Elle est présente dans une grande partie de la France métropolitaine, mais est en régression dans le Nord et l'Ouest du pays.
 </t>
         </is>
       </c>
@@ -569,10 +585,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce actuellement appelée Diacrisia purpurata a été décrite en 1758 par le naturaliste suédois Carl von Linné, sous le nom initial de Phalaena purpurata[3],[1]. Par la suite, elle a longtemps été connue sous le nom de Rhyparia purpurata[1].
-On distingue deux sous-espèces[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'espèce actuellement appelée Diacrisia purpurata a été décrite en 1758 par le naturaliste suédois Carl von Linné, sous le nom initial de Phalaena purpurata,. Par la suite, elle a longtemps été connue sous le nom de Rhyparia purpurata.
+On distingue deux sous-espèces :
 Phalaena purpurata purpurata (Linnaeus, 1758) — de l'Europe à la Mongolie.
 Rhyparia purpurata gerda (Warnecke, 1918) — en Extrême-Orient.</t>
         </is>
@@ -602,9 +620,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Polyphages, les chenilles se nourrissent notamment sur Salix repens, Salix phylicifolia, Sorbus aucuparia, Trifolium repens, Vaccinium myrtillus, Plantago major, Galium verum, Achillea millefolium, Artemisia campestris et Hieracium umbellatum[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Polyphages, les chenilles se nourrissent notamment sur Salix repens, Salix phylicifolia, Sorbus aucuparia, Trifolium repens, Vaccinium myrtillus, Plantago major, Galium verum, Achillea millefolium, Artemisia campestris et Hieracium umbellatum.
 </t>
         </is>
       </c>
